--- a/FUNCION HASH/RESULTADOS/target_medio/mining_global_sizes/resultados.xlsx
+++ b/FUNCION HASH/RESULTADOS/target_medio/mining_global_sizes/resultados.xlsx
@@ -424,25 +424,25 @@
         <v>1.9456E-05</v>
       </c>
       <c r="C2" s="1">
-        <v>1.9456E-05</v>
+        <v>2.048E-05</v>
       </c>
       <c r="D2" s="1">
-        <v>2.4512E-05</v>
+        <v>2.3392E-05</v>
       </c>
       <c r="E2" s="1">
-        <v>3.856E-05</v>
+        <v>3.8592E-05</v>
       </c>
       <c r="F2" s="1">
-        <v>4.4032E-05</v>
+        <v>4.3968E-05</v>
       </c>
       <c r="G2" s="1">
         <v>5.0176E-05</v>
       </c>
       <c r="H2" s="1">
-        <v>7.276800000000001E-05</v>
+        <v>7.2704E-05</v>
       </c>
       <c r="I2" s="1">
-        <v>0.0007485440000000001</v>
+        <v>0.000748416</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -450,25 +450,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2.0192E-05</v>
+        <v>1.9456E-05</v>
       </c>
       <c r="C3" s="1">
         <v>1.9456E-05</v>
       </c>
       <c r="D3" s="1">
-        <v>2.0256E-05</v>
+        <v>1.8432E-05</v>
       </c>
       <c r="E3" s="1">
-        <v>2.4288E-05</v>
+        <v>2.256E-05</v>
       </c>
       <c r="F3" s="1">
-        <v>4.300800000000001E-05</v>
+        <v>4.5056E-05</v>
       </c>
       <c r="G3" s="1">
         <v>4.3296E-05</v>
       </c>
       <c r="H3" s="1">
-        <v>5.12E-05</v>
+        <v>5.008E-05</v>
       </c>
       <c r="I3" s="1">
         <v>0.000388096</v>
@@ -479,10 +479,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>1.9424E-05</v>
+        <v>1.9456E-05</v>
       </c>
       <c r="C4" s="1">
-        <v>1.9456E-05</v>
+        <v>1.8432E-05</v>
       </c>
       <c r="D4" s="1">
         <v>1.9456E-05</v>
@@ -491,16 +491,16 @@
         <v>2.048E-05</v>
       </c>
       <c r="F4" s="1">
-        <v>4.003200000000001E-05</v>
+        <v>3.8912E-05</v>
       </c>
       <c r="G4" s="1">
-        <v>4.489600000000001E-05</v>
+        <v>4.3072E-05</v>
       </c>
       <c r="H4" s="1">
         <v>4.4032E-05</v>
       </c>
       <c r="I4" s="1">
-        <v>0.000208832</v>
+        <v>0.000207872</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -508,28 +508,28 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>1.7408E-05</v>
+        <v>1.7312E-05</v>
       </c>
       <c r="C5" s="1">
-        <v>1.7152E-05</v>
+        <v>1.6608E-05</v>
       </c>
       <c r="D5" s="1">
-        <v>1.7408E-05</v>
+        <v>1.728E-05</v>
       </c>
       <c r="E5" s="1">
-        <v>1.8208E-05</v>
+        <v>1.6384E-05</v>
       </c>
       <c r="F5" s="1">
-        <v>4.832E-06</v>
+        <v>2.2528E-05</v>
       </c>
       <c r="G5" s="1">
-        <v>4.300800000000001E-05</v>
+        <v>4.5056E-05</v>
       </c>
       <c r="H5" s="1">
-        <v>4.4832E-05</v>
+        <v>4.2816E-05</v>
       </c>
       <c r="I5" s="1">
-        <v>0.000116736</v>
+        <v>0.00011776</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -540,25 +540,25 @@
         <v>1.7408E-05</v>
       </c>
       <c r="C6" s="1">
-        <v>1.7408E-05</v>
+        <v>1.7152E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>1.7472E-05</v>
+        <v>1.6608E-05</v>
       </c>
       <c r="E6" s="1">
-        <v>1.7408E-05</v>
+        <v>1.728E-05</v>
       </c>
       <c r="F6" s="1">
-        <v>1.9456E-05</v>
+        <v>2.048E-05</v>
       </c>
       <c r="G6" s="1">
-        <v>4.8E-05</v>
+        <v>4.4864E-05</v>
       </c>
       <c r="H6" s="1">
-        <v>4.4032E-05</v>
+        <v>4.4224E-05</v>
       </c>
       <c r="I6" s="1">
-        <v>7.372800000000001E-05</v>
+        <v>7.3792E-05</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -566,28 +566,28 @@
         <v>32</v>
       </c>
       <c r="B7" s="1">
-        <v>1.84E-05</v>
+        <v>1.7408E-05</v>
       </c>
       <c r="C7" s="1">
-        <v>1.728E-05</v>
+        <v>1.6544E-05</v>
       </c>
       <c r="D7" s="1">
-        <v>1.7632E-05</v>
+        <v>1.7344E-05</v>
       </c>
       <c r="E7" s="1">
-        <v>1.7408E-05</v>
+        <v>1.8432E-05</v>
       </c>
       <c r="F7" s="1">
-        <v>2.0352E-05</v>
+        <v>1.8688E-05</v>
       </c>
       <c r="G7" s="1">
-        <v>4.8128E-05</v>
+        <v>4.5824E-05</v>
       </c>
       <c r="H7" s="1">
-        <v>5.3216E-05</v>
+        <v>5.2224E-05</v>
       </c>
       <c r="I7" s="1">
-        <v>5.7312E-05</v>
+        <v>5.5296E-05</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -598,25 +598,25 @@
         <v>1.8432E-05</v>
       </c>
       <c r="C8" s="1">
+        <v>1.7408E-05</v>
+      </c>
+      <c r="D8" s="1">
         <v>1.7312E-05</v>
       </c>
-      <c r="D8" s="1">
-        <v>1.8432E-05</v>
-      </c>
       <c r="E8" s="1">
-        <v>1.824E-05</v>
+        <v>1.744E-05</v>
       </c>
       <c r="F8" s="1">
         <v>1.9456E-05</v>
       </c>
       <c r="G8" s="1">
-        <v>4.592E-05</v>
+        <v>4.796800000000001E-05</v>
       </c>
       <c r="H8" s="1">
-        <v>8.073600000000001E-05</v>
+        <v>8.377600000000001E-05</v>
       </c>
       <c r="I8" s="1">
-        <v>0.000106496</v>
+        <v>0.000105472</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -624,28 +624,28 @@
         <v>128</v>
       </c>
       <c r="B9" s="1">
-        <v>1.92E-05</v>
+        <v>1.824E-05</v>
       </c>
       <c r="C9" s="1">
-        <v>1.9232E-05</v>
+        <v>1.7536E-05</v>
       </c>
       <c r="D9" s="1">
-        <v>1.8368E-05</v>
+        <v>1.8432E-05</v>
       </c>
       <c r="E9" s="1">
-        <v>1.8592E-05</v>
+        <v>1.7632E-05</v>
       </c>
       <c r="F9" s="1">
-        <v>2.0544E-05</v>
+        <v>2.048E-05</v>
       </c>
       <c r="G9" s="1">
-        <v>4.7136E-05</v>
+        <v>4.4128E-05</v>
       </c>
       <c r="H9" s="1">
-        <v>8.089600000000001E-05</v>
+        <v>8.396800000000001E-05</v>
       </c>
       <c r="I9" s="1">
-        <v>0.000174912</v>
+        <v>0.00017408</v>
       </c>
     </row>
   </sheetData>

--- a/FUNCION HASH/RESULTADOS/target_medio/mining_global_sizes/resultados.xlsx
+++ b/FUNCION HASH/RESULTADOS/target_medio/mining_global_sizes/resultados.xlsx
@@ -427,22 +427,22 @@
         <v>2.048E-05</v>
       </c>
       <c r="D2" s="1">
-        <v>2.3392E-05</v>
+        <v>2.2528E-05</v>
       </c>
       <c r="E2" s="1">
-        <v>3.8592E-05</v>
+        <v>3.7888E-05</v>
       </c>
       <c r="F2" s="1">
-        <v>4.3968E-05</v>
+        <v>4.3712E-05</v>
       </c>
       <c r="G2" s="1">
         <v>5.0176E-05</v>
       </c>
       <c r="H2" s="1">
-        <v>7.2704E-05</v>
+        <v>7.2384E-05</v>
       </c>
       <c r="I2" s="1">
-        <v>0.000748416</v>
+        <v>0.0007485440000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -456,19 +456,19 @@
         <v>1.9456E-05</v>
       </c>
       <c r="D3" s="1">
-        <v>1.8432E-05</v>
+        <v>1.9456E-05</v>
       </c>
       <c r="E3" s="1">
-        <v>2.256E-05</v>
+        <v>2.2528E-05</v>
       </c>
       <c r="F3" s="1">
+        <v>4.3136E-05</v>
+      </c>
+      <c r="G3" s="1">
         <v>4.5056E-05</v>
       </c>
-      <c r="G3" s="1">
-        <v>4.3296E-05</v>
-      </c>
       <c r="H3" s="1">
-        <v>5.008E-05</v>
+        <v>5.0336E-05</v>
       </c>
       <c r="I3" s="1">
         <v>0.000388096</v>
@@ -482,22 +482,22 @@
         <v>1.9456E-05</v>
       </c>
       <c r="C4" s="1">
-        <v>1.8432E-05</v>
+        <v>1.9456E-05</v>
       </c>
       <c r="D4" s="1">
-        <v>1.9456E-05</v>
+        <v>1.8592E-05</v>
       </c>
       <c r="E4" s="1">
         <v>2.048E-05</v>
       </c>
       <c r="F4" s="1">
-        <v>3.8912E-05</v>
+        <v>3.904000000000001E-05</v>
       </c>
       <c r="G4" s="1">
-        <v>4.3072E-05</v>
+        <v>4.5056E-05</v>
       </c>
       <c r="H4" s="1">
-        <v>4.4032E-05</v>
+        <v>4.4128E-05</v>
       </c>
       <c r="I4" s="1">
         <v>0.000207872</v>
@@ -508,28 +508,28 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>1.7312E-05</v>
+        <v>1.7408E-05</v>
       </c>
       <c r="C5" s="1">
-        <v>1.6608E-05</v>
+        <v>1.728E-05</v>
       </c>
       <c r="D5" s="1">
-        <v>1.728E-05</v>
+        <v>1.7248E-05</v>
       </c>
       <c r="E5" s="1">
-        <v>1.6384E-05</v>
+        <v>1.6704E-05</v>
       </c>
       <c r="F5" s="1">
         <v>2.2528E-05</v>
       </c>
       <c r="G5" s="1">
-        <v>4.5056E-05</v>
+        <v>4.1888E-05</v>
       </c>
       <c r="H5" s="1">
-        <v>4.2816E-05</v>
+        <v>4.1888E-05</v>
       </c>
       <c r="I5" s="1">
-        <v>0.00011776</v>
+        <v>0.000117728</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -537,28 +537,28 @@
         <v>16</v>
       </c>
       <c r="B6" s="1">
-        <v>1.7408E-05</v>
+        <v>1.7184E-05</v>
       </c>
       <c r="C6" s="1">
-        <v>1.7152E-05</v>
+        <v>1.728E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>1.6608E-05</v>
+        <v>1.7408E-05</v>
       </c>
       <c r="E6" s="1">
-        <v>1.728E-05</v>
+        <v>1.7408E-05</v>
       </c>
       <c r="F6" s="1">
-        <v>2.048E-05</v>
+        <v>1.9456E-05</v>
       </c>
       <c r="G6" s="1">
-        <v>4.4864E-05</v>
+        <v>4.3936E-05</v>
       </c>
       <c r="H6" s="1">
-        <v>4.4224E-05</v>
+        <v>4.300800000000001E-05</v>
       </c>
       <c r="I6" s="1">
-        <v>7.3792E-05</v>
+        <v>7.388800000000001E-05</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -569,25 +569,25 @@
         <v>1.7408E-05</v>
       </c>
       <c r="C7" s="1">
-        <v>1.6544E-05</v>
+        <v>1.7408E-05</v>
       </c>
       <c r="D7" s="1">
-        <v>1.7344E-05</v>
+        <v>1.7408E-05</v>
       </c>
       <c r="E7" s="1">
-        <v>1.8432E-05</v>
+        <v>1.6384E-05</v>
       </c>
       <c r="F7" s="1">
-        <v>1.8688E-05</v>
+        <v>1.9424E-05</v>
       </c>
       <c r="G7" s="1">
-        <v>4.5824E-05</v>
+        <v>4.300800000000001E-05</v>
       </c>
       <c r="H7" s="1">
-        <v>5.2224E-05</v>
+        <v>5.0176E-05</v>
       </c>
       <c r="I7" s="1">
-        <v>5.5296E-05</v>
+        <v>5.552E-05</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -595,28 +595,28 @@
         <v>64</v>
       </c>
       <c r="B8" s="1">
-        <v>1.8432E-05</v>
+        <v>1.7408E-05</v>
       </c>
       <c r="C8" s="1">
-        <v>1.7408E-05</v>
+        <v>1.8208E-05</v>
       </c>
       <c r="D8" s="1">
-        <v>1.7312E-05</v>
+        <v>1.7408E-05</v>
       </c>
       <c r="E8" s="1">
-        <v>1.744E-05</v>
+        <v>1.7248E-05</v>
       </c>
       <c r="F8" s="1">
-        <v>1.9456E-05</v>
+        <v>1.9808E-05</v>
       </c>
       <c r="G8" s="1">
-        <v>4.796800000000001E-05</v>
+        <v>4.096E-05</v>
       </c>
       <c r="H8" s="1">
-        <v>8.377600000000001E-05</v>
+        <v>8.089600000000001E-05</v>
       </c>
       <c r="I8" s="1">
-        <v>0.000105472</v>
+        <v>0.000103424</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -624,28 +624,28 @@
         <v>128</v>
       </c>
       <c r="B9" s="1">
-        <v>1.824E-05</v>
+        <v>1.8432E-05</v>
       </c>
       <c r="C9" s="1">
-        <v>1.7536E-05</v>
+        <v>1.7504E-05</v>
       </c>
       <c r="D9" s="1">
-        <v>1.8432E-05</v>
+        <v>1.8304E-05</v>
       </c>
       <c r="E9" s="1">
-        <v>1.7632E-05</v>
+        <v>1.7664E-05</v>
       </c>
       <c r="F9" s="1">
-        <v>2.048E-05</v>
+        <v>1.9456E-05</v>
       </c>
       <c r="G9" s="1">
-        <v>4.4128E-05</v>
+        <v>4.2176E-05</v>
       </c>
       <c r="H9" s="1">
-        <v>8.396800000000001E-05</v>
+        <v>8.294400000000001E-05</v>
       </c>
       <c r="I9" s="1">
-        <v>0.00017408</v>
+        <v>0.000172032</v>
       </c>
     </row>
   </sheetData>
